--- a/ABS_Household_financing.xlsx
+++ b/ABS_Household_financing.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
     <sheet name="Data1" sheetId="1" r:id="rId2"/>
-    <sheet name="Inquiries" sheetId="2" r:id="rId3"/>
+    <sheet name="Investment_loans_outstanding" sheetId="4" r:id="rId3"/>
+    <sheet name="Inquiries" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="A2435226X">Data1!$B$1:$B$10,Data1!$B$11:$B$169</definedName>
@@ -65,7 +66,7 @@
     <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$169</definedName>
     <definedName name="Date_Range_Data">Data1!$A$11:$A$169</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4268,7 +4269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
   <si>
     <t>Owner-occupied housing ;  Banks ;</t>
   </si>
@@ -4443,6 +4444,12 @@
   <si>
     <t>Glossary</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Investment_housing_all_deposit_taking_institutions</t>
+  </si>
 </sst>
 </file>
 
@@ -4548,7 +4555,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4610,6 +4617,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5015,8 +5023,8 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="12" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5675,11 +5683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
+      <selection pane="bottomRight" activeCell="L169" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13509,6 +13517,1622 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <f>Data1!A11</f>
+        <v>37316</v>
+      </c>
+      <c r="B2">
+        <f>Data1!I11</f>
+        <v>95073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <f>Data1!A12</f>
+        <v>37347</v>
+      </c>
+      <c r="B3">
+        <f>Data1!I12</f>
+        <v>96909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <f>Data1!A13</f>
+        <v>37377</v>
+      </c>
+      <c r="B4">
+        <f>Data1!I13</f>
+        <v>99306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <f>Data1!A14</f>
+        <v>37408</v>
+      </c>
+      <c r="B5">
+        <f>Data1!I14</f>
+        <v>101443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <f>Data1!A15</f>
+        <v>37438</v>
+      </c>
+      <c r="B6">
+        <f>Data1!I15</f>
+        <v>103407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <f>Data1!A16</f>
+        <v>37469</v>
+      </c>
+      <c r="B7">
+        <f>Data1!I16</f>
+        <v>105379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <f>Data1!A17</f>
+        <v>37500</v>
+      </c>
+      <c r="B8">
+        <f>Data1!I17</f>
+        <v>107394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <f>Data1!A18</f>
+        <v>37530</v>
+      </c>
+      <c r="B9">
+        <f>Data1!I18</f>
+        <v>109239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <f>Data1!A19</f>
+        <v>37561</v>
+      </c>
+      <c r="B10">
+        <f>Data1!I19</f>
+        <v>111598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <f>Data1!A20</f>
+        <v>37591</v>
+      </c>
+      <c r="B11">
+        <f>Data1!I20</f>
+        <v>114219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <f>Data1!A21</f>
+        <v>37622</v>
+      </c>
+      <c r="B12">
+        <f>Data1!I21</f>
+        <v>116009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <f>Data1!A22</f>
+        <v>37653</v>
+      </c>
+      <c r="B13">
+        <f>Data1!I22</f>
+        <v>118222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <f>Data1!A23</f>
+        <v>37681</v>
+      </c>
+      <c r="B14">
+        <f>Data1!I23</f>
+        <v>119759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <f>Data1!A24</f>
+        <v>37712</v>
+      </c>
+      <c r="B15">
+        <f>Data1!I24</f>
+        <v>122780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <f>Data1!A25</f>
+        <v>37742</v>
+      </c>
+      <c r="B16">
+        <f>Data1!I25</f>
+        <v>125775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <f>Data1!A26</f>
+        <v>37773</v>
+      </c>
+      <c r="B17">
+        <f>Data1!I26</f>
+        <v>128938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <f>Data1!A27</f>
+        <v>37803</v>
+      </c>
+      <c r="B18">
+        <f>Data1!I27</f>
+        <v>131882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <f>Data1!A28</f>
+        <v>37834</v>
+      </c>
+      <c r="B19">
+        <f>Data1!I28</f>
+        <v>134663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <f>Data1!A29</f>
+        <v>37865</v>
+      </c>
+      <c r="B20">
+        <f>Data1!I29</f>
+        <v>137390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <f>Data1!A30</f>
+        <v>37895</v>
+      </c>
+      <c r="B21">
+        <f>Data1!I30</f>
+        <v>140728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <f>Data1!A31</f>
+        <v>37926</v>
+      </c>
+      <c r="B22">
+        <f>Data1!I31</f>
+        <v>143670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <f>Data1!A32</f>
+        <v>37956</v>
+      </c>
+      <c r="B23">
+        <f>Data1!I32</f>
+        <v>146438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <f>Data1!A33</f>
+        <v>37987</v>
+      </c>
+      <c r="B24">
+        <f>Data1!I33</f>
+        <v>148147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <f>Data1!A34</f>
+        <v>38018</v>
+      </c>
+      <c r="B25">
+        <f>Data1!I34</f>
+        <v>149360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <f>Data1!A35</f>
+        <v>38047</v>
+      </c>
+      <c r="B26">
+        <f>Data1!I35</f>
+        <v>150609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <f>Data1!A36</f>
+        <v>38078</v>
+      </c>
+      <c r="B27">
+        <f>Data1!I36</f>
+        <v>153309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <f>Data1!A37</f>
+        <v>38108</v>
+      </c>
+      <c r="B28">
+        <f>Data1!I37</f>
+        <v>156168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <f>Data1!A38</f>
+        <v>38139</v>
+      </c>
+      <c r="B29">
+        <f>Data1!I38</f>
+        <v>159718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <f>Data1!A39</f>
+        <v>38169</v>
+      </c>
+      <c r="B30">
+        <f>Data1!I39</f>
+        <v>161488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <f>Data1!A40</f>
+        <v>38200</v>
+      </c>
+      <c r="B31">
+        <f>Data1!I40</f>
+        <v>163191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <f>Data1!A41</f>
+        <v>38231</v>
+      </c>
+      <c r="B32">
+        <f>Data1!I41</f>
+        <v>163583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <f>Data1!A42</f>
+        <v>38261</v>
+      </c>
+      <c r="B33">
+        <f>Data1!I42</f>
+        <v>165528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <f>Data1!A43</f>
+        <v>38292</v>
+      </c>
+      <c r="B34">
+        <f>Data1!I43</f>
+        <v>167350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <f>Data1!A44</f>
+        <v>38322</v>
+      </c>
+      <c r="B35">
+        <f>Data1!I44</f>
+        <v>169026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <f>Data1!A45</f>
+        <v>38353</v>
+      </c>
+      <c r="B36">
+        <f>Data1!I45</f>
+        <v>170860</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <f>Data1!A46</f>
+        <v>38384</v>
+      </c>
+      <c r="B37">
+        <f>Data1!I46</f>
+        <v>170427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
+        <f>Data1!A47</f>
+        <v>38412</v>
+      </c>
+      <c r="B38">
+        <f>Data1!I47</f>
+        <v>171504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <f>Data1!A48</f>
+        <v>38443</v>
+      </c>
+      <c r="B39">
+        <f>Data1!I48</f>
+        <v>173561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <f>Data1!A49</f>
+        <v>38473</v>
+      </c>
+      <c r="B40">
+        <f>Data1!I49</f>
+        <v>175231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <f>Data1!A50</f>
+        <v>38504</v>
+      </c>
+      <c r="B41">
+        <f>Data1!I50</f>
+        <v>177132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <f>Data1!A51</f>
+        <v>38534</v>
+      </c>
+      <c r="B42">
+        <f>Data1!I51</f>
+        <v>178445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <f>Data1!A52</f>
+        <v>38565</v>
+      </c>
+      <c r="B43">
+        <f>Data1!I52</f>
+        <v>180239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <f>Data1!A53</f>
+        <v>38596</v>
+      </c>
+      <c r="B44">
+        <f>Data1!I53</f>
+        <v>180702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <f>Data1!A54</f>
+        <v>38626</v>
+      </c>
+      <c r="B45">
+        <f>Data1!I54</f>
+        <v>182830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="25">
+        <f>Data1!A55</f>
+        <v>38657</v>
+      </c>
+      <c r="B46">
+        <f>Data1!I55</f>
+        <v>184903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="25">
+        <f>Data1!A56</f>
+        <v>38687</v>
+      </c>
+      <c r="B47">
+        <f>Data1!I56</f>
+        <v>186427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="25">
+        <f>Data1!A57</f>
+        <v>38718</v>
+      </c>
+      <c r="B48">
+        <f>Data1!I57</f>
+        <v>188149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <f>Data1!A58</f>
+        <v>38749</v>
+      </c>
+      <c r="B49">
+        <f>Data1!I58</f>
+        <v>188823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <f>Data1!A59</f>
+        <v>38777</v>
+      </c>
+      <c r="B50">
+        <f>Data1!I59</f>
+        <v>188654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <f>Data1!A60</f>
+        <v>38808</v>
+      </c>
+      <c r="B51">
+        <f>Data1!I60</f>
+        <v>189901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <f>Data1!A61</f>
+        <v>38838</v>
+      </c>
+      <c r="B52">
+        <f>Data1!I61</f>
+        <v>192010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <f>Data1!A62</f>
+        <v>38869</v>
+      </c>
+      <c r="B53">
+        <f>Data1!I62</f>
+        <v>193970</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="25">
+        <f>Data1!A63</f>
+        <v>38899</v>
+      </c>
+      <c r="B54">
+        <f>Data1!I63</f>
+        <v>195953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="25">
+        <f>Data1!A64</f>
+        <v>38930</v>
+      </c>
+      <c r="B55">
+        <f>Data1!I64</f>
+        <v>197677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <f>Data1!A65</f>
+        <v>38961</v>
+      </c>
+      <c r="B56">
+        <f>Data1!I65</f>
+        <v>197607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <f>Data1!A66</f>
+        <v>38991</v>
+      </c>
+      <c r="B57">
+        <f>Data1!I66</f>
+        <v>198769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="25">
+        <f>Data1!A67</f>
+        <v>39022</v>
+      </c>
+      <c r="B58">
+        <f>Data1!I67</f>
+        <v>200262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="25">
+        <f>Data1!A68</f>
+        <v>39052</v>
+      </c>
+      <c r="B59">
+        <f>Data1!I68</f>
+        <v>201833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="25">
+        <f>Data1!A69</f>
+        <v>39083</v>
+      </c>
+      <c r="B60">
+        <f>Data1!I69</f>
+        <v>203584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="25">
+        <f>Data1!A70</f>
+        <v>39114</v>
+      </c>
+      <c r="B61">
+        <f>Data1!I70</f>
+        <v>203196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="25">
+        <f>Data1!A71</f>
+        <v>39142</v>
+      </c>
+      <c r="B62">
+        <f>Data1!I71</f>
+        <v>204732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="25">
+        <f>Data1!A72</f>
+        <v>39173</v>
+      </c>
+      <c r="B63">
+        <f>Data1!I72</f>
+        <v>206449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="25">
+        <f>Data1!A73</f>
+        <v>39203</v>
+      </c>
+      <c r="B64">
+        <f>Data1!I73</f>
+        <v>205827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="25">
+        <f>Data1!A74</f>
+        <v>39234</v>
+      </c>
+      <c r="B65">
+        <f>Data1!I74</f>
+        <v>210731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <f>Data1!A75</f>
+        <v>39264</v>
+      </c>
+      <c r="B66">
+        <f>Data1!I75</f>
+        <v>212083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <f>Data1!A76</f>
+        <v>39295</v>
+      </c>
+      <c r="B67">
+        <f>Data1!I76</f>
+        <v>214234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <f>Data1!A77</f>
+        <v>39326</v>
+      </c>
+      <c r="B68">
+        <f>Data1!I77</f>
+        <v>215934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="25">
+        <f>Data1!A78</f>
+        <v>39356</v>
+      </c>
+      <c r="B69">
+        <f>Data1!I78</f>
+        <v>218838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="25">
+        <f>Data1!A79</f>
+        <v>39387</v>
+      </c>
+      <c r="B70">
+        <f>Data1!I79</f>
+        <v>223453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="25">
+        <f>Data1!A80</f>
+        <v>39417</v>
+      </c>
+      <c r="B71">
+        <f>Data1!I80</f>
+        <v>225992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="25">
+        <f>Data1!A81</f>
+        <v>39448</v>
+      </c>
+      <c r="B72">
+        <f>Data1!I81</f>
+        <v>228113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="25">
+        <f>Data1!A82</f>
+        <v>39479</v>
+      </c>
+      <c r="B73">
+        <f>Data1!I82</f>
+        <v>230224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="25">
+        <f>Data1!A83</f>
+        <v>39508</v>
+      </c>
+      <c r="B74">
+        <f>Data1!I83</f>
+        <v>232761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="25">
+        <f>Data1!A84</f>
+        <v>39539</v>
+      </c>
+      <c r="B75">
+        <f>Data1!I84</f>
+        <v>235714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="25">
+        <f>Data1!A85</f>
+        <v>39569</v>
+      </c>
+      <c r="B76">
+        <f>Data1!I85</f>
+        <v>238623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="25">
+        <f>Data1!A86</f>
+        <v>39600</v>
+      </c>
+      <c r="B77">
+        <f>Data1!I86</f>
+        <v>244602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="25">
+        <f>Data1!A87</f>
+        <v>39630</v>
+      </c>
+      <c r="B78">
+        <f>Data1!I87</f>
+        <v>246100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="25">
+        <f>Data1!A88</f>
+        <v>39661</v>
+      </c>
+      <c r="B79">
+        <f>Data1!I88</f>
+        <v>248716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="25">
+        <f>Data1!A89</f>
+        <v>39692</v>
+      </c>
+      <c r="B80">
+        <f>Data1!I89</f>
+        <v>251342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="25">
+        <f>Data1!A90</f>
+        <v>39722</v>
+      </c>
+      <c r="B81">
+        <f>Data1!I90</f>
+        <v>253294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="25">
+        <f>Data1!A91</f>
+        <v>39753</v>
+      </c>
+      <c r="B82">
+        <f>Data1!I91</f>
+        <v>271332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="25">
+        <f>Data1!A92</f>
+        <v>39783</v>
+      </c>
+      <c r="B83">
+        <f>Data1!I92</f>
+        <v>274995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="25">
+        <f>Data1!A93</f>
+        <v>39814</v>
+      </c>
+      <c r="B84">
+        <f>Data1!I93</f>
+        <v>276834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="25">
+        <f>Data1!A94</f>
+        <v>39845</v>
+      </c>
+      <c r="B85">
+        <f>Data1!I94</f>
+        <v>279181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="25">
+        <f>Data1!A95</f>
+        <v>39873</v>
+      </c>
+      <c r="B86">
+        <f>Data1!I95</f>
+        <v>280684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="25">
+        <f>Data1!A96</f>
+        <v>39904</v>
+      </c>
+      <c r="B87">
+        <f>Data1!I96</f>
+        <v>283378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="25">
+        <f>Data1!A97</f>
+        <v>39934</v>
+      </c>
+      <c r="B88">
+        <f>Data1!I97</f>
+        <v>286051</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="25">
+        <f>Data1!A98</f>
+        <v>39965</v>
+      </c>
+      <c r="B89">
+        <f>Data1!I98</f>
+        <v>289490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="25">
+        <f>Data1!A99</f>
+        <v>39995</v>
+      </c>
+      <c r="B90">
+        <f>Data1!I99</f>
+        <v>292362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="25">
+        <f>Data1!A100</f>
+        <v>40026</v>
+      </c>
+      <c r="B91">
+        <f>Data1!I100</f>
+        <v>295116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="25">
+        <f>Data1!A101</f>
+        <v>40057</v>
+      </c>
+      <c r="B92">
+        <f>Data1!I101</f>
+        <v>297563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="25">
+        <f>Data1!A102</f>
+        <v>40087</v>
+      </c>
+      <c r="B93">
+        <f>Data1!I102</f>
+        <v>300884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="25">
+        <f>Data1!A103</f>
+        <v>40118</v>
+      </c>
+      <c r="B94">
+        <f>Data1!I103</f>
+        <v>303798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="25">
+        <f>Data1!A104</f>
+        <v>40148</v>
+      </c>
+      <c r="B95">
+        <f>Data1!I104</f>
+        <v>307074</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="25">
+        <f>Data1!A105</f>
+        <v>40179</v>
+      </c>
+      <c r="B96">
+        <f>Data1!I105</f>
+        <v>309673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="25">
+        <f>Data1!A106</f>
+        <v>40210</v>
+      </c>
+      <c r="B97">
+        <f>Data1!I106</f>
+        <v>313595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="25">
+        <f>Data1!A107</f>
+        <v>40238</v>
+      </c>
+      <c r="B98">
+        <f>Data1!I107</f>
+        <v>317135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="25">
+        <f>Data1!A108</f>
+        <v>40269</v>
+      </c>
+      <c r="B99">
+        <f>Data1!I108</f>
+        <v>320321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="25">
+        <f>Data1!A109</f>
+        <v>40299</v>
+      </c>
+      <c r="B100">
+        <f>Data1!I109</f>
+        <v>324048</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="25">
+        <f>Data1!A110</f>
+        <v>40330</v>
+      </c>
+      <c r="B101">
+        <f>Data1!I110</f>
+        <v>328396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="25">
+        <f>Data1!A111</f>
+        <v>40360</v>
+      </c>
+      <c r="B102">
+        <f>Data1!I111</f>
+        <v>330511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="25">
+        <f>Data1!A112</f>
+        <v>40391</v>
+      </c>
+      <c r="B103">
+        <f>Data1!I112</f>
+        <v>333020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="25">
+        <f>Data1!A113</f>
+        <v>40422</v>
+      </c>
+      <c r="B104">
+        <f>Data1!I113</f>
+        <v>334763</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="25">
+        <f>Data1!A114</f>
+        <v>40452</v>
+      </c>
+      <c r="B105">
+        <f>Data1!I114</f>
+        <v>337054</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="25">
+        <f>Data1!A115</f>
+        <v>40483</v>
+      </c>
+      <c r="B106">
+        <f>Data1!I115</f>
+        <v>339483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="25">
+        <f>Data1!A116</f>
+        <v>40513</v>
+      </c>
+      <c r="B107">
+        <f>Data1!I116</f>
+        <v>342071</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="25">
+        <f>Data1!A117</f>
+        <v>40544</v>
+      </c>
+      <c r="B108">
+        <f>Data1!I117</f>
+        <v>343908</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="25">
+        <f>Data1!A118</f>
+        <v>40575</v>
+      </c>
+      <c r="B109">
+        <f>Data1!I118</f>
+        <v>345475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="25">
+        <f>Data1!A119</f>
+        <v>40603</v>
+      </c>
+      <c r="B110">
+        <f>Data1!I119</f>
+        <v>348640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="25">
+        <f>Data1!A120</f>
+        <v>40634</v>
+      </c>
+      <c r="B111">
+        <f>Data1!I120</f>
+        <v>350116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="25">
+        <f>Data1!A121</f>
+        <v>40664</v>
+      </c>
+      <c r="B112">
+        <f>Data1!I121</f>
+        <v>352513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="25">
+        <f>Data1!A122</f>
+        <v>40695</v>
+      </c>
+      <c r="B113">
+        <f>Data1!I122</f>
+        <v>349995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="25">
+        <f>Data1!A123</f>
+        <v>40725</v>
+      </c>
+      <c r="B114">
+        <f>Data1!I123</f>
+        <v>351647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="25">
+        <f>Data1!A124</f>
+        <v>40756</v>
+      </c>
+      <c r="B115">
+        <f>Data1!I124</f>
+        <v>354158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="25">
+        <f>Data1!A125</f>
+        <v>40787</v>
+      </c>
+      <c r="B116">
+        <f>Data1!I125</f>
+        <v>356457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="25">
+        <f>Data1!A126</f>
+        <v>40817</v>
+      </c>
+      <c r="B117">
+        <f>Data1!I126</f>
+        <v>358422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="25">
+        <f>Data1!A127</f>
+        <v>40848</v>
+      </c>
+      <c r="B118">
+        <f>Data1!I127</f>
+        <v>357140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="25">
+        <f>Data1!A128</f>
+        <v>40878</v>
+      </c>
+      <c r="B119">
+        <f>Data1!I128</f>
+        <v>359278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="25">
+        <f>Data1!A129</f>
+        <v>40909</v>
+      </c>
+      <c r="B120">
+        <f>Data1!I129</f>
+        <v>360900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="25">
+        <f>Data1!A130</f>
+        <v>40940</v>
+      </c>
+      <c r="B121">
+        <f>Data1!I130</f>
+        <v>362819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="25">
+        <f>Data1!A131</f>
+        <v>40969</v>
+      </c>
+      <c r="B122">
+        <f>Data1!I131</f>
+        <v>365259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="25">
+        <f>Data1!A132</f>
+        <v>41000</v>
+      </c>
+      <c r="B123">
+        <f>Data1!I132</f>
+        <v>367503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="25">
+        <f>Data1!A133</f>
+        <v>41030</v>
+      </c>
+      <c r="B124">
+        <f>Data1!I133</f>
+        <v>370322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="25">
+        <f>Data1!A134</f>
+        <v>41061</v>
+      </c>
+      <c r="B125">
+        <f>Data1!I134</f>
+        <v>373468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="25">
+        <f>Data1!A135</f>
+        <v>41091</v>
+      </c>
+      <c r="B126">
+        <f>Data1!I135</f>
+        <v>375480</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="25">
+        <f>Data1!A136</f>
+        <v>41122</v>
+      </c>
+      <c r="B127">
+        <f>Data1!I136</f>
+        <v>377252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="25">
+        <f>Data1!A137</f>
+        <v>41153</v>
+      </c>
+      <c r="B128">
+        <f>Data1!I137</f>
+        <v>378390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="25">
+        <f>Data1!A138</f>
+        <v>41183</v>
+      </c>
+      <c r="B129">
+        <f>Data1!I138</f>
+        <v>380497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="25">
+        <f>Data1!A139</f>
+        <v>41214</v>
+      </c>
+      <c r="B130">
+        <f>Data1!I139</f>
+        <v>382649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="25">
+        <f>Data1!A140</f>
+        <v>41244</v>
+      </c>
+      <c r="B131">
+        <f>Data1!I140</f>
+        <v>384957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="25">
+        <f>Data1!A141</f>
+        <v>41275</v>
+      </c>
+      <c r="B132">
+        <f>Data1!I141</f>
+        <v>387109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="25">
+        <f>Data1!A142</f>
+        <v>41306</v>
+      </c>
+      <c r="B133">
+        <f>Data1!I142</f>
+        <v>387936</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="25">
+        <f>Data1!A143</f>
+        <v>41334</v>
+      </c>
+      <c r="B134">
+        <f>Data1!I143</f>
+        <v>390001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="25">
+        <f>Data1!A144</f>
+        <v>41365</v>
+      </c>
+      <c r="B135">
+        <f>Data1!I144</f>
+        <v>392498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="25">
+        <f>Data1!A145</f>
+        <v>41395</v>
+      </c>
+      <c r="B136">
+        <f>Data1!I145</f>
+        <v>395179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="25">
+        <f>Data1!A146</f>
+        <v>41426</v>
+      </c>
+      <c r="B137">
+        <f>Data1!I146</f>
+        <v>405958</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="25">
+        <f>Data1!A147</f>
+        <v>41456</v>
+      </c>
+      <c r="B138">
+        <f>Data1!I147</f>
+        <v>408173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="25">
+        <f>Data1!A148</f>
+        <v>41487</v>
+      </c>
+      <c r="B139">
+        <f>Data1!I148</f>
+        <v>410245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="25">
+        <f>Data1!A149</f>
+        <v>41518</v>
+      </c>
+      <c r="B140">
+        <f>Data1!I149</f>
+        <v>412701</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="25">
+        <f>Data1!A150</f>
+        <v>41548</v>
+      </c>
+      <c r="B141">
+        <f>Data1!I150</f>
+        <v>415990</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="25">
+        <f>Data1!A151</f>
+        <v>41579</v>
+      </c>
+      <c r="B142">
+        <f>Data1!I151</f>
+        <v>419549</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="25">
+        <f>Data1!A152</f>
+        <v>41609</v>
+      </c>
+      <c r="B143">
+        <f>Data1!I152</f>
+        <v>423180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="25">
+        <f>Data1!A153</f>
+        <v>41640</v>
+      </c>
+      <c r="B144">
+        <f>Data1!I153</f>
+        <v>426065</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="25">
+        <f>Data1!A154</f>
+        <v>41671</v>
+      </c>
+      <c r="B145">
+        <f>Data1!I154</f>
+        <v>428875</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="25">
+        <f>Data1!A155</f>
+        <v>41699</v>
+      </c>
+      <c r="B146">
+        <f>Data1!I155</f>
+        <v>431861</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="25">
+        <f>Data1!A156</f>
+        <v>41730</v>
+      </c>
+      <c r="B147">
+        <f>Data1!I156</f>
+        <v>435555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="25">
+        <f>Data1!A157</f>
+        <v>41760</v>
+      </c>
+      <c r="B148">
+        <f>Data1!I157</f>
+        <v>439736</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="25">
+        <f>Data1!A158</f>
+        <v>41791</v>
+      </c>
+      <c r="B149">
+        <f>Data1!I158</f>
+        <v>444891</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="25">
+        <f>Data1!A159</f>
+        <v>41821</v>
+      </c>
+      <c r="B150">
+        <f>Data1!I159</f>
+        <v>448358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="25">
+        <f>Data1!A160</f>
+        <v>41852</v>
+      </c>
+      <c r="B151">
+        <f>Data1!I160</f>
+        <v>451865</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="25">
+        <f>Data1!A161</f>
+        <v>41883</v>
+      </c>
+      <c r="B152">
+        <f>Data1!I161</f>
+        <v>455554</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="25">
+        <f>Data1!A162</f>
+        <v>41913</v>
+      </c>
+      <c r="B153">
+        <f>Data1!I162</f>
+        <v>459822</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="25">
+        <f>Data1!A163</f>
+        <v>41944</v>
+      </c>
+      <c r="B154">
+        <f>Data1!I163</f>
+        <v>463639</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="25">
+        <f>Data1!A164</f>
+        <v>41974</v>
+      </c>
+      <c r="B155">
+        <f>Data1!I164</f>
+        <v>468085</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="25">
+        <f>Data1!A165</f>
+        <v>42005</v>
+      </c>
+      <c r="B156">
+        <f>Data1!I165</f>
+        <v>471779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="25">
+        <f>Data1!A166</f>
+        <v>42036</v>
+      </c>
+      <c r="B157">
+        <f>Data1!I166</f>
+        <v>474907</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="25">
+        <f>Data1!A167</f>
+        <v>42064</v>
+      </c>
+      <c r="B158">
+        <f>Data1!I167</f>
+        <v>479046</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="25">
+        <f>Data1!A168</f>
+        <v>42095</v>
+      </c>
+      <c r="B159">
+        <f>Data1!I168</f>
+        <v>483320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="25">
+        <f>Data1!A169</f>
+        <v>42125</v>
+      </c>
+      <c r="B160">
+        <f>Data1!I169</f>
+        <v>486954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z12"/>
   <sheetViews>
